--- a/Cert of Admission/test/test.xlsx
+++ b/Cert of Admission/test/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2fdfa382fee7564/Desktop/입학처/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssu-admission-uipath\Cert of Admission\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D066CA252ABDACC1048C7F921721B49B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF79CEE-C0AF-4FA6-B2DA-B248F2B1CA39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62905B49-2E18-4B0D-9377-5A35E193AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,9 @@
   <si>
     <t>최종출신학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개강일</t>
   </si>
 </sst>
 </file>
@@ -223,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -509,15 +508,16 @@
     <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,19 +561,22 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -616,20 +619,23 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>20250302</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>8672000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>11328000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>20000000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,16 +678,19 @@
       <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>20250302</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>8672000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>11328000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>20000000</v>
       </c>
     </row>
